--- a/Elasticsearch.xlsx
+++ b/Elasticsearch.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="243">
   <si>
     <t>Elasticsearch</t>
   </si>
@@ -1394,6 +1394,41 @@
   </si>
   <si>
     <t>NUMBER</t>
+  </si>
+  <si>
+    <t>SYSLOGTIMESTAMP</t>
+  </si>
+  <si>
+    <t>..bin&gt;logstash-plugin install --no-verify --local --version 5.3.0 'logstash-output-jdbc'</t>
+  </si>
+  <si>
+    <t>..bin&gt;logstash-plugin install --no-verify --local file:///C:/Users/pg38446/Downloads/logstash-output-jdbc.zip</t>
+  </si>
+  <si>
+    <t>Plugin</t>
+  </si>
+  <si>
+    <t>output {
+ jdbc {
+  connection_string =&gt; "jdbc:oracle:thin:USER/PASS@HOST:PORT:SID"
+  statement =&gt; [ "INSERT INTO log (host, timestamp, message) VALUES(?, CAST (? AS timestamp), ?)", "host", "@timestamp", "message" ]
+ }
+}</t>
+  </si>
+  <si>
+    <t>JDBC</t>
+  </si>
+  <si>
+    <t>input {
+  jdbc {
+    jdbc_driver_library =&gt; "mysql-connector-java-5.1.36-bin.jar"
+    jdbc_driver_class =&gt; "com.mysql.jdbc.Driver"
+    jdbc_connection_string =&gt; "jdbc:mysql://localhost:3306/mydb"
+    jdbc_user =&gt; "mysql"
+    parameters =&gt; { "favorite_artist" =&gt; "Beethoven" }
+    schedule =&gt; "* * * * *"
+    statement =&gt; "SELECT * from songs where artist = :favorite_artist"
+  } }</t>
   </si>
 </sst>
 </file>
@@ -2262,7 +2297,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="125">
+  <cellXfs count="127">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -2593,6 +2628,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -4171,13 +4212,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>89648</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>44824</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1918448</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>2054632</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4224,13 +4265,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>47624</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>38105</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1876424</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>1980811</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4277,13 +4318,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>47626</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>1409700</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>1974627</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4330,13 +4371,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>1924050</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>57149</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>1735455</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>1957581</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4932,8 +4973,8 @@
       <c r="A8" s="102"/>
       <c r="B8" s="106"/>
       <c r="C8" s="109"/>
-      <c r="D8" s="123"/>
-      <c r="E8" s="124"/>
+      <c r="D8" s="125"/>
+      <c r="E8" s="126"/>
       <c r="F8" s="108"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -5796,10 +5837,10 @@
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="113" t="s">
+      <c r="C2" s="115" t="s">
         <v>37</v>
       </c>
-      <c r="D2" s="113"/>
+      <c r="D2" s="115"/>
       <c r="E2" s="2" t="s">
         <v>38</v>
       </c>
@@ -5813,10 +5854,10 @@
       <c r="B4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="113" t="s">
+      <c r="C4" s="115" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="113"/>
+      <c r="D4" s="115"/>
       <c r="E4" s="1" t="s">
         <v>2</v>
       </c>
@@ -5929,10 +5970,10 @@
       <c r="B16" s="86" t="s">
         <v>173</v>
       </c>
-      <c r="C16" s="116" t="s">
+      <c r="C16" s="118" t="s">
         <v>174</v>
       </c>
-      <c r="D16" s="116"/>
+      <c r="D16" s="118"/>
       <c r="E16" s="87"/>
       <c r="F16" s="87"/>
       <c r="G16" s="87"/>
@@ -5946,10 +5987,10 @@
       <c r="C17" s="87" t="s">
         <v>67</v>
       </c>
-      <c r="D17" s="114"/>
-      <c r="E17" s="114"/>
-      <c r="F17" s="117"/>
-      <c r="G17" s="118"/>
+      <c r="D17" s="116"/>
+      <c r="E17" s="116"/>
+      <c r="F17" s="119"/>
+      <c r="G17" s="120"/>
       <c r="H17" s="87"/>
       <c r="I17" s="90"/>
     </row>
@@ -6039,19 +6080,19 @@
       <c r="B25" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C25" s="113" t="s">
+      <c r="C25" s="115" t="s">
         <v>36</v>
       </c>
-      <c r="D25" s="113"/>
+      <c r="D25" s="115"/>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B26" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C26" s="113" t="s">
+      <c r="C26" s="115" t="s">
         <v>5</v>
       </c>
-      <c r="D26" s="113"/>
+      <c r="D26" s="115"/>
     </row>
     <row r="27" spans="2:9" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B27" s="1" t="s">
@@ -6287,10 +6328,10 @@
       <c r="C51" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="D51" s="115" t="s">
+      <c r="D51" s="117" t="s">
         <v>119</v>
       </c>
-      <c r="E51" s="115"/>
+      <c r="E51" s="117"/>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
@@ -6346,10 +6387,10 @@
       <c r="D69" s="62" t="s">
         <v>100</v>
       </c>
-      <c r="E69" s="115" t="s">
+      <c r="E69" s="117" t="s">
         <v>131</v>
       </c>
-      <c r="F69" s="115"/>
+      <c r="F69" s="117"/>
     </row>
     <row r="70" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B70" s="1" t="s">
@@ -6545,8 +6586,8 @@
       <c r="B23" s="57" t="s">
         <v>171</v>
       </c>
-      <c r="D23" s="119"/>
-      <c r="E23" s="119"/>
+      <c r="D23" s="121"/>
+      <c r="E23" s="121"/>
       <c r="F23"/>
     </row>
   </sheetData>
@@ -6560,10 +6601,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:G32"/>
+  <dimension ref="A3:G36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6635,10 +6676,10 @@
       <c r="B9" s="66" t="s">
         <v>75</v>
       </c>
-      <c r="F9" s="120" t="s">
+      <c r="F9" s="122" t="s">
         <v>76</v>
       </c>
-      <c r="G9" s="120"/>
+      <c r="G9" s="122"/>
     </row>
     <row r="10" spans="1:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="66" t="s">
@@ -6650,10 +6691,10 @@
       <c r="D10" s="70" t="s">
         <v>163</v>
       </c>
-      <c r="F10" s="120" t="s">
+      <c r="F10" s="122" t="s">
         <v>78</v>
       </c>
-      <c r="G10" s="120"/>
+      <c r="G10" s="122"/>
     </row>
     <row r="11" spans="1:7" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="66" t="s">
@@ -6770,66 +6811,79 @@
       </c>
       <c r="G18" s="80"/>
     </row>
-    <row r="19" spans="1:7" ht="167.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B19" s="66" t="s">
+        <v>239</v>
+      </c>
+      <c r="E19" s="124" t="s">
+        <v>237</v>
+      </c>
+      <c r="F19" s="124"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B20" s="66" t="s">
+        <v>239</v>
+      </c>
+      <c r="E20" s="124" t="s">
+        <v>238</v>
+      </c>
+      <c r="F20" s="124"/>
+    </row>
+    <row r="21" spans="1:7" s="113" customFormat="1" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="66"/>
+      <c r="B21" s="66" t="s">
+        <v>158</v>
+      </c>
+      <c r="C21" s="66"/>
+      <c r="D21" s="66"/>
+      <c r="E21" s="124" t="s">
+        <v>240</v>
+      </c>
+      <c r="F21" s="124"/>
+    </row>
+    <row r="22" spans="1:7" s="113" customFormat="1" ht="127.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="66"/>
+      <c r="B22" s="66" t="s">
+        <v>154</v>
+      </c>
+      <c r="C22" s="66" t="s">
+        <v>241</v>
+      </c>
+      <c r="D22" s="66"/>
+      <c r="E22" s="124" t="s">
+        <v>242</v>
+      </c>
+      <c r="F22" s="124"/>
+    </row>
+    <row r="23" spans="1:7" s="113" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="66"/>
+      <c r="B23" s="66"/>
+      <c r="C23" s="66"/>
+      <c r="D23" s="66"/>
+      <c r="E23" s="114"/>
+      <c r="F23" s="114"/>
+    </row>
+    <row r="24" spans="1:7" ht="167.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="66" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="159" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F20" s="121"/>
-      <c r="G20" s="121"/>
-    </row>
-    <row r="25" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B25" s="66" t="s">
-        <v>204</v>
-      </c>
-      <c r="C25" s="66" t="s">
-        <v>219</v>
-      </c>
-      <c r="D25" s="68" t="s">
-        <v>220</v>
-      </c>
-      <c r="E25" s="68" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B26" s="66" t="s">
-        <v>204</v>
-      </c>
-      <c r="C26" s="66" t="s">
-        <v>223</v>
-      </c>
-      <c r="D26" s="66" t="s">
-        <v>222</v>
-      </c>
-      <c r="E26" s="68" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B27" s="66" t="s">
-        <v>204</v>
-      </c>
-      <c r="C27" s="66" t="s">
-        <v>225</v>
-      </c>
+    <row r="25" spans="1:7" ht="159" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F25" s="123"/>
+      <c r="G25" s="123"/>
     </row>
     <row r="28" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B28" s="66" t="s">
         <v>204</v>
       </c>
       <c r="C28" s="66" t="s">
-        <v>226</v>
-      </c>
-      <c r="D28" s="66" t="s">
-        <v>227</v>
+        <v>219</v>
+      </c>
+      <c r="D28" s="68" t="s">
+        <v>220</v>
       </c>
       <c r="E28" s="68" t="s">
-        <v>228</v>
-      </c>
-      <c r="F28" s="59" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
@@ -6837,35 +6891,83 @@
         <v>204</v>
       </c>
       <c r="C29" s="66" t="s">
+        <v>223</v>
+      </c>
+      <c r="D29" s="66" t="s">
+        <v>222</v>
+      </c>
+      <c r="E29" s="68" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B30" s="66" t="s">
+        <v>204</v>
+      </c>
+      <c r="C30" s="66" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="B31" s="66" t="s">
+        <v>204</v>
+      </c>
+      <c r="C31" s="66" t="s">
+        <v>226</v>
+      </c>
+      <c r="D31" s="66" t="s">
+        <v>227</v>
+      </c>
+      <c r="E31" s="68" t="s">
+        <v>228</v>
+      </c>
+      <c r="F31" s="59" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="B32" s="66" t="s">
+        <v>204</v>
+      </c>
+      <c r="C32" s="66" t="s">
         <v>231</v>
       </c>
-      <c r="D29" s="66" t="s">
+      <c r="D32" s="66" t="s">
         <v>230</v>
       </c>
-      <c r="E29" s="68" t="s">
+      <c r="E32" s="68" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C30" s="66" t="s">
+    <row r="33" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C33" s="66" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C31" s="66" t="s">
+    <row r="34" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C34" s="66" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C32" s="66" t="s">
+    <row r="35" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C35" s="66" t="s">
         <v>235</v>
       </c>
     </row>
+    <row r="36" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C36" s="66" t="s">
+        <v>236</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="7">
     <mergeCell ref="F9:G9"/>
     <mergeCell ref="F10:G10"/>
-    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="E22:F22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6927,7 +7029,7 @@
   <dimension ref="B2:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="D6" sqref="D6:E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6952,10 +7054,10 @@
       <c r="B5" s="58" t="s">
         <v>205</v>
       </c>
-      <c r="D5" s="122" t="s">
+      <c r="D5" s="124" t="s">
         <v>208</v>
       </c>
-      <c r="E5" s="122"/>
+      <c r="E5" s="124"/>
     </row>
   </sheetData>
   <mergeCells count="1">
